--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints3.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints3.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.320068643255524e-09</v>
+        <v>4.242372632694497e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>4.310473183997311e-09</v>
+        <v>4.350024846791104e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>4.344447018062586e-09</v>
+        <v>4.474063189313058e-09</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>4.41876292711078e-09</v>
+        <v>4.613617964038873e-09</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>4.530193692801432e-09</v>
+        <v>4.767819474747528e-09</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>4.675512096794062e-09</v>
+        <v>4.93579802521786e-09</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>4.851490920748443e-09</v>
+        <v>5.116683919228951e-09</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>5.054902946323634e-09</v>
+        <v>5.309607460559161e-09</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>5.282520955179361e-09</v>
+        <v>5.513698952987549e-09</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>5.531117728975489e-09</v>
+        <v>5.728088700293241e-09</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>5.797466049370886e-09</v>
+        <v>5.951907006254507e-09</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>6.078338698025382e-09</v>
+        <v>6.184284174650456e-09</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>6.37050845659889e-09</v>
+        <v>6.424350509260242e-09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>6.670748106750162e-09</v>
+        <v>6.67123631386207e-09</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>6.975830430139094e-09</v>
+        <v>6.924071892235081e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>7.282528208425212e-09</v>
+        <v>7.181987548158116e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>7.587614223268433e-09</v>
+        <v>7.444113585410351e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>7.887861256327474e-09</v>
+        <v>7.709580307769934e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>8.18012934549079e-09</v>
+        <v>7.977517742868826e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>8.463033228660888e-09</v>
+        <v>8.247050365090477e-09</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>8.736812716187397e-09</v>
+        <v>8.517297505812145e-09</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>9.001768901259223e-09</v>
+        <v>8.78737830246514e-09</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>9.258202877064888e-09</v>
+        <v>9.056411892480408e-09</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>9.50641573679324e-09</v>
+        <v>9.32351741328926e-09</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>9.746708573632147e-09</v>
+        <v>9.587814002321936e-09</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>9.979382480770468e-09</v>
+        <v>9.848420797009747e-09</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.020473855139702e-08</v>
+        <v>1.010445693478398e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.042307787869973e-08</v>
+        <v>1.03550415530749e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.063470155586743e-08</v>
+        <v>1.059929378931382e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.083991067608864e-08</v>
+        <v>1.083633278093169e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.103900633255214e-08</v>
+        <v>1.106527766535974e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.123228961844593e-08</v>
+        <v>1.128524758002834e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.142006162695881e-08</v>
+        <v>1.149536166236873e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.160262345127954e-08</v>
+        <v>1.169473904981213e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.178014398671907e-08</v>
+        <v>1.188254960153459e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.195190736264358e-08</v>
+        <v>1.205830264414025e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.211683458145521e-08</v>
+        <v>1.222164682896289e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.22738455384061e-08</v>
+        <v>1.237223123212732e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.242186012874907e-08</v>
+        <v>1.250970492975896e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.25597982477367e-08</v>
+        <v>1.263371699798299e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.268657979062173e-08</v>
+        <v>1.274391651292478e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.280112465265641e-08</v>
+        <v>1.283995255070922e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.29023527290935e-08</v>
+        <v>1.292147418746168e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.298918391518569e-08</v>
+        <v>1.298813049930744e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.306053810618534e-08</v>
+        <v>1.303957056237153e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.311533519734515e-08</v>
+        <v>1.307544345277924e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.31524950839177e-08</v>
+        <v>1.309539824665579e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.31709376611556e-08</v>
+        <v>1.309908402012637e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.316958282431138e-08</v>
+        <v>1.308614984931617e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.314751045725085e-08</v>
+        <v>1.305635918820019e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.310585725459435e-08</v>
+        <v>1.301094593034786e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.304718681365825e-08</v>
+        <v>1.295216407981625e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.297409143469893e-08</v>
+        <v>1.288228816075124e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.288916341797272e-08</v>
+        <v>1.28035926972987e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.27949950637363e-08</v>
+        <v>1.271835221360475e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.269417867224598e-08</v>
+        <v>1.262884123381525e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.258930654375822e-08</v>
+        <v>1.253733428207614e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.248297097852932e-08</v>
+        <v>1.244610588253326e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.237776427681598e-08</v>
+        <v>1.235743055933279e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.227627873887452e-08</v>
+        <v>1.227358283662055e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.218110666496126e-08</v>
+        <v>1.219683723854239e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.209476605429946e-08</v>
+        <v>1.212939618112673e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.201794758229777e-08</v>
+        <v>1.207168868809946e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.194944629708069e-08</v>
+        <v>1.202230410331833e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.188796927927794e-08</v>
+        <v>1.197974639941303e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.183222360951946e-08</v>
+        <v>1.194251954901341e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.178091636843494e-08</v>
+        <v>1.190912752474917e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.173275463665409e-08</v>
+        <v>1.187807429924998e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.168644549480684e-08</v>
+        <v>1.184786384514569e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.16406960235229e-08</v>
+        <v>1.181700013506598e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.159421330343198e-08</v>
+        <v>1.178398714164055e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.154570441516399e-08</v>
+        <v>1.174732883749925e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.149387643934865e-08</v>
+        <v>1.170552919527175e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.143743645661575e-08</v>
+        <v>1.16570921875878e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.137509154759496e-08</v>
+        <v>1.160052178707706e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.130554879291626e-08</v>
+        <v>1.153432196636943e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.122751527320932e-08</v>
+        <v>1.145699669809458e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.113969806910383e-08</v>
+        <v>1.136704995488212e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.104080426122978e-08</v>
+        <v>1.126298570936203e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.092954093021685e-08</v>
+        <v>1.114330793416393e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.080461515669482e-08</v>
+        <v>1.100652060191757e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.066473402129329e-08</v>
+        <v>1.085112768525249e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.050860460464239e-08</v>
+        <v>1.067563315679881e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.033493398737173e-08</v>
+        <v>1.04785409891861e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.014242925011084e-08</v>
+        <v>1.02583551550438e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>9.929797473490001e-09</v>
+        <v>1.001357962700221e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>9.69574573813875e-09</v>
+        <v>9.742718377690814e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>9.44010063479536e-09</v>
+        <v>9.44581645044822e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>9.168508127550822e-09</v>
+        <v>9.13092959414394e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>8.888499130407778e-09</v>
+        <v>8.808708300717908e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>8.607605524442729e-09</v>
+        <v>8.48980439334364e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>8.333359190732164e-09</v>
+        <v>8.184869695194675e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>8.073292010353657e-09</v>
+        <v>7.904556029445742e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>7.834935864383687e-09</v>
+        <v>7.659515219270345e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>7.625822633898847e-09</v>
+        <v>7.460399087842181e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>7.453484199976542e-09</v>
+        <v>7.317859458335705e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.325452443693321e-09</v>
+        <v>7.242548153924542e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.249259246126024e-09</v>
+        <v>7.24511699778261e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.232436488351523e-09</v>
+        <v>7.336217813084014e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.282516051446712e-09</v>
+        <v>7.526502423002444e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>3.063271096895389e-09</v>
+        <v>3.081838693105372e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>3.971543972543413e-09</v>
+        <v>4.007600169120821e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>3.800719753545273e-09</v>
+        <v>3.893308937794851e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.232436637878205e-09</v>
+        <v>5.271366043602226e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>6.593392472849399e-09</v>
+        <v>6.563523144097793e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>6.747292560415539e-09</v>
+        <v>6.72078693610737e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.110859433719585e-08</v>
+        <v>1.115034744923478e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.946806111164996e-08</v>
+        <v>2.957251413649963e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>5.960408112913432e-08</v>
+        <v>5.976444483163238e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>7.434939938103091e-08</v>
+        <v>7.462748908659609e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>7.878906961944524e-08</v>
+        <v>7.895720834845193e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>7.932214261483738e-08</v>
+        <v>7.918463690730792e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>7.685575461379167e-08</v>
+        <v>7.665497348076076e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>7.31481927350797e-08</v>
+        <v>7.312380865417418e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>7.032598253503173e-08</v>
+        <v>7.045073083638594e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>6.861846619875208e-08</v>
+        <v>6.866364234983269e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>6.798455065544911e-08</v>
+        <v>6.77832828486224e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>6.940339758642771e-08</v>
+        <v>6.94655273894716e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.802990918964018e-08</v>
+        <v>6.820207568790772e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.646066445409151e-08</v>
+        <v>6.6370708284461e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.740846706656664e-08</v>
+        <v>6.724122505478528e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>6.721770594270827e-08</v>
+        <v>6.708616239603363e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>6.621413975124306e-08</v>
+        <v>6.615157283505559e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>6.522667774258776e-08</v>
+        <v>6.521425570090214e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>6.414294084548692e-08</v>
+        <v>6.415920744917562e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.27485777337587e-08</v>
+        <v>6.277481317011709e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>6.083407393386263e-08</v>
+        <v>6.085456655608978e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.823926656435121e-08</v>
+        <v>5.824408561805858e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>5.483284474753143e-08</v>
+        <v>5.481946136638306e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>5.048993951364304e-08</v>
+        <v>5.046323808507477e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>4.532198100450637e-08</v>
+        <v>4.529390854241678e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.97473462095271e-08</v>
+        <v>3.97364568978585e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.420492447871742e-08</v>
+        <v>3.423634923463464e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.908130295104853e-08</v>
+        <v>2.918175395646775e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.441814186440824e-08</v>
+        <v>2.458296804175603e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.011798787278822e-08</v>
+        <v>2.029800914165145e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.617103858133759e-08</v>
+        <v>1.62993749972896e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.274919771669618e-08</v>
+        <v>1.279671599689399e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.003862832378336e-08</v>
+        <v>1.001947465981062e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>8.063428022085003e-09</v>
+        <v>8.008947428292837e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>6.699060674043041e-09</v>
+        <v>6.633877849759148e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>5.815489115818117e-09</v>
+        <v>5.756623183423395e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>5.282676183571926e-09</v>
+        <v>5.239540688500457e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>4.970584713464926e-09</v>
+        <v>4.944987624203983e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>4.754216172269562e-09</v>
+        <v>4.740714914033362e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.577791052393135e-09</v>
+        <v>4.56856984123577e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.435823815385426e-09</v>
+        <v>4.424237488659657e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.323961089860659e-09</v>
+        <v>4.304614881351929e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.23784950443311e-09</v>
+        <v>4.206599044359542e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>4.173135687717169e-09</v>
+        <v>4.127087002729573e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.125466268327104e-09</v>
+        <v>4.062975781508969e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>4.090487874877224e-09</v>
+        <v>4.011162405744721e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>4.063847135981831e-09</v>
+        <v>3.968543900483805e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>4.041763831918961e-09</v>
+        <v>3.932410025194274e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>4.023297136576791e-09</v>
+        <v>3.901996145849642e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>4.00838388312355e-09</v>
+        <v>3.877139017254751e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.996961161667686e-09</v>
+        <v>3.857675570274795e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.988966062317633e-09</v>
+        <v>3.843442735774931e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.984335675181831e-09</v>
+        <v>3.834277444620331e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>3.98300709036872e-09</v>
+        <v>3.830016627676163e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>3.984917397986742e-09</v>
+        <v>3.830497215807603e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>3.990003688144335e-09</v>
+        <v>3.835556139879817e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.998203050949942e-09</v>
+        <v>3.845030330757982e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>4.009452576511998e-09</v>
+        <v>3.858756719307262e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>4.023689354938944e-09</v>
+        <v>3.876572236392828e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>4.040850476339221e-09</v>
+        <v>3.898313812879853e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>4.060873030821279e-09</v>
+        <v>3.923818379633517e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>4.083694108493538e-09</v>
+        <v>3.95292286751897e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>4.109250799464449e-09</v>
+        <v>3.985464207401395e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>4.137480193842463e-09</v>
+        <v>4.021279330145975e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>4.168319381735995e-09</v>
+        <v>4.060205166617853e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>4.201705453253498e-09</v>
+        <v>4.102078647682211e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>4.23757549850341e-09</v>
+        <v>4.146736704204223e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>4.27586660759419e-09</v>
+        <v>4.194016267049079e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.316515870634244e-09</v>
+        <v>4.243754267081908e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>4.35946037773203e-09</v>
+        <v>4.295787635167904e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.404637218996005e-09</v>
+        <v>4.34995330217226e-09</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.451983484534569e-09</v>
+        <v>4.406088198960096e-09</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>4.501436264456186e-09</v>
+        <v>4.46402925639661e-09</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>4.552932648869291e-09</v>
+        <v>4.52361340534697e-09</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>4.606409727882349e-09</v>
+        <v>4.584677576676377e-09</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>4.661804591603754e-09</v>
+        <v>4.647058701249945e-09</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>4.71905433014197e-09</v>
+        <v>4.710593709932874e-09</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>4.778096033605435e-09</v>
+        <v>4.775119533590332e-09</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>4.838866792102616e-09</v>
+        <v>4.84047310308752e-09</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>4.901303695741901e-09</v>
+        <v>4.906491349289549e-09</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>4.965343834631756e-09</v>
+        <v>4.973011203061623e-09</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>5.030924330024843e-09</v>
+        <v>5.039869638546035e-09</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>5.098093582528956e-09</v>
+        <v>5.107058260549321e-09</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>5.167261209445145e-09</v>
+        <v>5.175070610442362e-09</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>5.238909992217722e-09</v>
+        <v>5.244501896433119e-09</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>5.313522712290899e-09</v>
+        <v>5.315947326729458e-09</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>5.391582151108988e-09</v>
+        <v>5.390002109539333e-09</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>5.473571090116265e-09</v>
+        <v>5.467261453070674e-09</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>5.55997231075705e-09</v>
+        <v>5.548320565531447e-09</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>5.65126859447554e-09</v>
+        <v>5.633774655129503e-09</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>5.747942722716056e-09</v>
+        <v>5.724218930072808e-09</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>5.850477476922873e-09</v>
+        <v>5.820248598569288e-09</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>5.959355638540317e-09</v>
+        <v>5.922458868826918e-09</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>6.075059989012573e-09</v>
+        <v>6.031444949053532e-09</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>6.198073309783963e-09</v>
+        <v>6.147802047457102e-09</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>6.32887838229883e-09</v>
+        <v>6.272125372245617e-09</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>6.467957988001329e-09</v>
+        <v>6.405010131626888e-09</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>6.615794908335799e-09</v>
+        <v>6.547051533808898e-09</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>6.772871924746515e-09</v>
+        <v>6.698844786999573e-09</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>6.939671818677837e-09</v>
+        <v>6.860985099406919e-09</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>7.116677371573888e-09</v>
+        <v>7.034067679238713e-09</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>7.304371364879023e-09</v>
+        <v>7.218687734702959e-09</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>7.503236580037608e-09</v>
+        <v>7.415440474007669e-09</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>7.713755798493746e-09</v>
+        <v>7.624921105360595e-09</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>7.936411801691799e-09</v>
+        <v>7.847724836969754e-09</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>8.171687371076045e-09</v>
+        <v>8.084446877043066e-09</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>8.420065288090882e-09</v>
+        <v>8.335682433788583e-09</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>8.682028334180359e-09</v>
+        <v>8.602026715414001e-09</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>8.958501200416577e-09</v>
+        <v>8.884476901094894e-09</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>9.252769643123449e-09</v>
+        <v>9.186177848229173e-09</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>9.568904723735684e-09</v>
+        <v>9.510988745461194e-09</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>9.91097803254601e-09</v>
+        <v>9.862769262496537e-09</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.028306115984702e-08</v>
+        <v>1.024537906904064e-08</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.068922569593149e-08</v>
+        <v>1.066267783479916e-08</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.113354323109166e-08</v>
+        <v>1.111852522947714e-08</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.162008535562028e-08</v>
+        <v>1.161678092278023e-08</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.215292365981022e-08</v>
+        <v>1.216130458441412e-08</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.273612973395358e-08</v>
+        <v>1.275595588408377e-08</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.337377516834318e-08</v>
+        <v>1.340459449149485e-08</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.406993155327162e-08</v>
+        <v>1.411108007635281e-08</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.482867047903184e-08</v>
+        <v>1.487927230836346e-08</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.565406353591576e-08</v>
+        <v>1.571303085723154e-08</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.655018231421631e-08</v>
+        <v>1.661621539266285e-08</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.752109840422652e-08</v>
+        <v>1.759268558436327e-08</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.857088339623811e-08</v>
+        <v>1.864630110203737e-08</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.970619959467202e-08</v>
+        <v>1.978354436359796e-08</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.09612294210595e-08</v>
+        <v>2.103875818924141e-08</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.238675014076263e-08</v>
+        <v>2.246308543759076e-08</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.403376785918068e-08</v>
+        <v>2.410790063690442e-08</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.595328868171475e-08</v>
+        <v>2.602457831544262e-08</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.81963187137654e-08</v>
+        <v>2.826449300146501e-08</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.081386406073442e-08</v>
+        <v>3.08790192232325e-08</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>3.385693082801998e-08</v>
+        <v>3.39195315090024e-08</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.737652512102371e-08</v>
+        <v>3.743740438703544e-08</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>4.142365304514809e-08</v>
+        <v>4.148401238559322e-08</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>4.604932070579002e-08</v>
+        <v>4.611073003293176e-08</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>5.130453420835171e-08</v>
+        <v>5.136893185731242e-08</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>5.724029965823654e-08</v>
+        <v>5.730999238699765e-08</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>6.389514472316989e-08</v>
+        <v>6.397276008068455e-08</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>7.115474069838604e-08</v>
+        <v>7.124264355109323e-08</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>7.880230993429964e-08</v>
+        <v>7.890221140461992e-08</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>8.661918658115874e-08</v>
+        <v>8.673213683997837e-08</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>9.43867047892007e-08</v>
+        <v>9.451309305587163e-08</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.018861987086735e-07</v>
+        <v>1.020257532510133e-07</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.088990024898216e-07</v>
+        <v>1.090507906241137e-07</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.152064502828921e-07</v>
+        <v>1.153688783738855e-07</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.205898762381237e-07</v>
+        <v>1.207606896990332e-07</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.24830614505764e-07</v>
+        <v>1.250068977982699e-07</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.277099992360583e-07</v>
+        <v>1.278881758703068e-07</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.290093645792485e-07</v>
+        <v>1.291851971138513e-07</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.285100446855806e-07</v>
+        <v>1.286786347276153e-07</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.260137763163115e-07</v>
+        <v>1.261696489018683e-07</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.216125551992884e-07</v>
+        <v>1.217508592383722e-07</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.156143756862536e-07</v>
+        <v>1.157317772838414e-07</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.083323749320985e-07</v>
+        <v>1.084270786576002e-07</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.000796900917122e-07</v>
+        <v>1.001514389789708e-07</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>9.11694583199952e-08</v>
+        <v>9.121953386728695e-08</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>8.191481677183685e-08</v>
+        <v>8.194603894187111e-08</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>7.262890260213018e-08</v>
+        <v>7.264562982204933e-08</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>6.362485296576414e-08</v>
+        <v>6.363298212714377e-08</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>5.521580501763992e-08</v>
+        <v>5.522277147648868e-08</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>4.771489591264635e-08</v>
+        <v>4.772967348940602e-08</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>4.143526280567387e-08</v>
+        <v>4.146836378521935e-08</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>3.669004285162119e-08</v>
+        <v>3.675351798326046e-08</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>3.379237320537815e-08</v>
+        <v>3.389981170285234e-08</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>3.295908278072046e-08</v>
+        <v>3.312403846427821e-08</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>3.305932803223892e-08</v>
+        <v>3.327329582414292e-08</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>3.197060301661612e-08</v>
+        <v>3.218681331111222e-08</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.75509565743177e-08</v>
+        <v>2.768408532216325e-08</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.956593096813987e-08</v>
+        <v>1.953822198161168e-08</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.278781590073976e-08</v>
+        <v>1.264995923721528e-08</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>9.98538061286391e-09</v>
+        <v>9.855466376770342e-09</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>9.314374597268605e-09</v>
+        <v>9.245802732849128e-09</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>8.776500084221673e-09</v>
+        <v>8.755311889487929e-09</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>7.928385149366427e-09</v>
+        <v>7.927796939241332e-09</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>6.880807831065356e-09</v>
+        <v>6.880645836794917e-09</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>5.745225728945215e-09</v>
+        <v>5.731949931366945e-09</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>4.631482545507146e-09</v>
+        <v>4.598101605507735e-09</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>3.617597974414698e-09</v>
+        <v>3.561991769217081e-09</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.752458218937794e-09</v>
+        <v>2.675842197323692e-09</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.083875005437799e-09</v>
+        <v>1.990743551387619e-09</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.659660060276949e-09</v>
+        <v>1.557786492969806e-09</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.527625109816511e-09</v>
+        <v>1.428061683630203e-09</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.735581880418099e-09</v>
+        <v>1.652659784929115e-09</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.331342098443692e-09</v>
+        <v>2.282671458427234e-09</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.362717490254386e-09</v>
+        <v>3.369187365684318e-09</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>4.957972969338743e-09</v>
+        <v>5.039932556061461e-09</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>8.179559642057518e-09</v>
+        <v>8.312476093051001e-09</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.414575783510086e-08</v>
+        <v>1.425076184907017e-08</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.1273922758905e-08</v>
+        <v>2.131224858727554e-08</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>2.718481222996057e-08</v>
+        <v>2.718607737811721e-08</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.108661974424179e-08</v>
+        <v>3.110773565252706e-08</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.421018017969641e-08</v>
+        <v>3.428299508701672e-08</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.791757257713364e-08</v>
+        <v>3.804547419674888e-08</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>4.357075252119029e-08</v>
+        <v>4.372866986701472e-08</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>5.187987515454376e-08</v>
+        <v>5.202392069744837e-08</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>6.13818150904997e-08</v>
+        <v>6.14814343384665e-08</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>7.016104494954694e-08</v>
+        <v>7.020570888057557e-08</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>7.630203735217632e-08</v>
+        <v>7.630124241428395e-08</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>7.809872999228936e-08</v>
+        <v>7.808071146653895e-08</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>7.666196102855129e-08</v>
+        <v>7.665639024809201e-08</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>7.51193916837275e-08</v>
+        <v>7.514498771970664e-08</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>7.664251210521834e-08</v>
+        <v>7.670677254808074e-08</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>8.357336656187418e-08</v>
+        <v>8.367537368170751e-08</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>9.469291652591226e-08</v>
+        <v>9.483538503781488e-08</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.078266328784436e-07</v>
+        <v>1.080191425341573e-07</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.207999748163336e-07</v>
+        <v>1.210589704437737e-07</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.314384070233144e-07</v>
+        <v>1.31787198482428e-07</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.381634483876986e-07</v>
+        <v>1.386274153579665e-07</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.416326129728311e-07</v>
+        <v>1.422212165355562e-07</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.43027634941922e-07</v>
+        <v>1.437302002678519e-07</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.435302484581776e-07</v>
+        <v>1.443159648075046e-07</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.442838162191016e-07</v>
+        <v>1.451028349715686e-07</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.458292876552466e-07</v>
+        <v>1.466299608464222e-07</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.48228979637533e-07</v>
+        <v>1.489715564113867e-07</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.515320050044677e-07</v>
+        <v>1.521890094572923e-07</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.557874765945527e-07</v>
+        <v>1.563437077749646e-07</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.610445072462944e-07</v>
+        <v>1.614970391552334e-07</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.673522097981979e-07</v>
+        <v>1.677103913889273e-07</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.747596970887718e-07</v>
+        <v>1.750451522668783e-07</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.833151307896767e-07</v>
+        <v>1.835617103662844e-07</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.929427783814773e-07</v>
+        <v>1.931903017414128e-07</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.033214000660061e-07</v>
+        <v>2.036032537306975e-07</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.141008546964995e-07</v>
+        <v>2.144425324150957e-07</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.249310011262081e-07</v>
+        <v>2.253501038755783e-07</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.354616982083778e-07</v>
+        <v>2.359679341931122e-07</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.453428047962591e-07</v>
+        <v>2.459379894486681e-07</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.542241797430887e-07</v>
+        <v>2.549022357232036e-07</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.617556819021174e-07</v>
+        <v>2.6250263909769e-07</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.675876672678502e-07</v>
+        <v>2.683816782924483e-07</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.71473292927035e-07</v>
+        <v>2.722878378855502e-07</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.733938183445011e-07</v>
+        <v>2.742048157948853e-07</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>2.733611723275286e-07</v>
+        <v>2.741479353800789e-07</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.713872836833961e-07</v>
+        <v>2.721325200007548e-07</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>2.674840812193855e-07</v>
+        <v>2.681738930165405e-07</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.616634937427762e-07</v>
+        <v>2.622873777870607e-07</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>2.539374500608442e-07</v>
+        <v>2.544882976719368e-07</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.443178789808767e-07</v>
+        <v>2.447919760308015e-07</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>2.328315118228081e-07</v>
+        <v>2.332284568771241e-07</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>2.197302126195398e-07</v>
+        <v>2.200516719395184e-07</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.054410354591114e-07</v>
+        <v>2.056897741898991e-07</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.903956510144032e-07</v>
+        <v>1.905755076550218e-07</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.750257299582763e-07</v>
+        <v>1.751416163616231e-07</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.59762942963591e-07</v>
+        <v>1.598208443364391e-07</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.450389607032285e-07</v>
+        <v>1.450459356062264e-07</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.312854538500491e-07</v>
+        <v>1.31249634197721e-07</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.1893409307692e-07</v>
+        <v>1.188646841376653e-07</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.083088538167617e-07</v>
+        <v>1.082158451500925e-07</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>9.92895693936284e-08</v>
+        <v>9.918254273670852e-08</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>9.164159436343738e-08</v>
+        <v>9.152941636077944e-08</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>8.513028316491848e-08</v>
+        <v>8.502110536806912e-08</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>7.952099023679914e-08</v>
+        <v>7.942224910433918e-08</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>7.457907001781413e-08</v>
+        <v>7.44974869153585e-08</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>7.006987694669067e-08</v>
+        <v>7.001145814688839e-08</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>6.575876546215655e-08</v>
+        <v>6.572880214469082e-08</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>6.141189724206222e-08</v>
+        <v>6.141496276563486e-08</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>5.694683351579481e-08</v>
+        <v>5.698627177255257e-08</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>5.260971512634738e-08</v>
+        <v>5.26865301270677e-08</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>4.868974825209724e-08</v>
+        <v>4.880245858950731e-08</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>4.547613907141573e-08</v>
+        <v>4.562077792019251e-08</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>4.325809376267616e-08</v>
+        <v>4.342820887944634e-08</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>4.232481850425174e-08</v>
+        <v>4.251147222759177e-08</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.296551947451675e-08</v>
+        <v>4.315728872495284e-08</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>4.546940285184377e-08</v>
+        <v>4.565237913185188e-08</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>5.011994555871652e-08</v>
+        <v>5.02777790671278e-08</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>5.687967980804479e-08</v>
+        <v>5.699605066585945e-08</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>6.522636430300944e-08</v>
+        <v>6.528871523624006e-08</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>7.459750558451909e-08</v>
+        <v>7.459735185976361e-08</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>8.443061019348406e-08</v>
+        <v>8.436353961792587e-08</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>9.416318467080127e-08</v>
+        <v>9.402885759220918e-08</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.03232735557381e-07</v>
+        <v>1.030348848641093e-07</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.110767693941325e-07</v>
+        <v>1.108232005151207e-07</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.171327927219543e-07</v>
+        <v>1.168353836267275e-07</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.209454279069734e-07</v>
+        <v>1.206193714135956e-07</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.226198985767118e-07</v>
+        <v>1.2227973689555e-07</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.224442100728671e-07</v>
+        <v>1.221025418860467e-07</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.207064683280067e-07</v>
+        <v>1.203739480778744e-07</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.176947792746985e-07</v>
+        <v>1.173801171638219e-07</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.136972488455097e-07</v>
+        <v>1.134072108366778e-07</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.090019829730055e-07</v>
+        <v>1.087413907892281e-07</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.038970875897575e-07</v>
+        <v>1.036688187142659e-07</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>9.867066456618825e-08</v>
+        <v>9.847565226877569e-08</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>9.355636933699564e-08</v>
+        <v>9.339395573455318e-08</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>8.859691780996627e-08</v>
+        <v>8.846609202304256e-08</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>8.379319294788343e-08</v>
+        <v>8.369286236843188e-08</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>7.914607771353272e-08</v>
+        <v>7.907506800491147e-08</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>7.465645506969785e-08</v>
+        <v>7.461351016666979e-08</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>7.032520797916847e-08</v>
+        <v>7.030899008790116e-08</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>6.615321940472814e-08</v>
+        <v>6.616230900279391e-08</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>6.214137230916253e-08</v>
+        <v>6.217426814553842e-08</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>5.829054965525555e-08</v>
+        <v>5.834566875032336e-08</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>5.460163440579633e-08</v>
+        <v>5.467731205134253e-08</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>5.107550952356867e-08</v>
+        <v>5.116999928278451e-08</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>4.771305797135682e-08</v>
+        <v>4.782453167883825e-08</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>4.451516271194937e-08</v>
+        <v>4.464171047369707e-08</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>4.148270670813044e-08</v>
+        <v>4.162233690154982e-08</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>3.86165729226844e-08</v>
+        <v>3.87672121965856e-08</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>3.591764431839948e-08</v>
+        <v>3.607713759299736e-08</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>3.338680385805996e-08</v>
+        <v>3.355291432497412e-08</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>3.102422057715492e-08</v>
+        <v>3.119465132580551e-08</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.88252943090544e-08</v>
+        <v>2.899783279606862e-08</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.678347080549841e-08</v>
+        <v>2.695604804805287e-08</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.489218991468868e-08</v>
+        <v>2.50628806693402e-08</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.314489148482798e-08</v>
+        <v>2.331191424751356e-08</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.153501536411835e-08</v>
+        <v>2.169673237015523e-08</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.005600140076399e-08</v>
+        <v>2.021091862484961e-08</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.87012894429669e-08</v>
+        <v>1.884805659917889e-08</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.746431933892932e-08</v>
+        <v>1.760172988072552e-08</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.633853093685508e-08</v>
+        <v>1.646552205707356e-08</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.531736408494638e-08</v>
+        <v>1.543301671580538e-08</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.439425863140556e-08</v>
+        <v>1.449779744450357e-08</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.356265442443622e-08</v>
+        <v>1.365344783075189e-08</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.281599131224065e-08</v>
+        <v>1.289355146213288e-08</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.214770914302134e-08</v>
+        <v>1.221169192622921e-08</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.155124776498189e-08</v>
+        <v>1.160145281062469e-08</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.102004702632397e-08</v>
+        <v>1.10564177029012e-08</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.054754677525089e-08</v>
+        <v>1.057017019064227e-08</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.012718685996577e-08</v>
+        <v>1.01362938614312e-08</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>9.752407128670576e-09</v>
+        <v>9.748372302850185e-09</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>9.416647429568756e-09</v>
+        <v>9.399989102482878e-09</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>9.113347610862453e-09</v>
+        <v>9.084727847911611e-09</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>8.835947520754726e-09</v>
+        <v>8.796172126719658e-09</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>8.577887007448543e-09</v>
+        <v>8.527905526490211e-09</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>8.332605919146195e-09</v>
+        <v>8.27351163480574e-09</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>8.093544104050664e-09</v>
+        <v>8.026574039249448e-09</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>7.854501908914754e-09</v>
+        <v>7.781024919159685e-09</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>7.613482852000382e-09</v>
+        <v>7.534860800137169e-09</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>7.371208063256859e-09</v>
+        <v>7.288706060317438e-09</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>7.128444231437124e-09</v>
+        <v>7.043229131892079e-09</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>6.885958045293462e-09</v>
+        <v>6.799098447052015e-09</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>6.644516193578817e-09</v>
+        <v>6.556982437988838e-09</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>6.404885365046127e-09</v>
+        <v>6.317549536894132e-09</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>6.167832248447685e-09</v>
+        <v>6.081468175958828e-09</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>5.934123532536434e-09</v>
+        <v>5.84940678737452e-09</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>5.704525906065299e-09</v>
+        <v>5.622033803332771e-09</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>5.479806057786591e-09</v>
+        <v>5.400017656024542e-09</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>5.26073067645344e-09</v>
+        <v>5.1840267776416e-09</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>5.048066450818173e-09</v>
+        <v>4.974729600374923e-09</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>4.842580069633713e-09</v>
+        <v>4.772794556416078e-09</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>4.645038221652963e-09</v>
+        <v>4.578890077956604e-09</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>4.456207595628285e-09</v>
+        <v>4.393684597187517e-09</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>4.276854880312589e-09</v>
+        <v>4.217846546300369e-09</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>4.107730349941548e-09</v>
+        <v>4.052029631456746e-09</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.949110013028723e-09</v>
+        <v>3.896462078669814e-09</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.800734696005335e-09</v>
+        <v>3.750891983635095e-09</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.662316571717541e-09</v>
+        <v>3.615041735927994e-09</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>3.533567813011129e-09</v>
+        <v>3.488633725123545e-09</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>3.414200592732366e-09</v>
+        <v>3.371390340797254e-09</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>3.303927083727076e-09</v>
+        <v>3.263033972524197e-09</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>3.202459458841406e-09</v>
+        <v>3.163287009879762e-09</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>3.109509890921474e-09</v>
+        <v>3.071871842439309e-09</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>3.02479055281315e-09</v>
+        <v>2.988510859777956e-09</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.948013617362555e-09</v>
+        <v>2.912926451471068e-09</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.878891257415789e-09</v>
+        <v>2.844841007093986e-09</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.81713564581876e-09</v>
+        <v>2.783976916221869e-09</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.762458955417574e-09</v>
+        <v>2.730056568430061e-09</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.714573359058307e-09</v>
+        <v>2.682802353293885e-09</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.673191029586908e-09</v>
+        <v>2.641936660388536e-09</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.638024139849461e-09</v>
+        <v>2.607181879289341e-09</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.608784862692028e-09</v>
+        <v>2.578260399571605e-09</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.585185370960591e-09</v>
+        <v>2.554894610810556e-09</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.56693783750123e-09</v>
+        <v>2.536806902581521e-09</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.55375443515995e-09</v>
+        <v>2.523719664459745e-09</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.545347336782807e-09</v>
+        <v>2.515355286020531e-09</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.541428715215839e-09</v>
+        <v>2.51143615683916e-09</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.541710743305075e-09</v>
+        <v>2.511684666490907e-09</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.545905593896558e-09</v>
+        <v>2.515823204551058e-09</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.553725439836315e-09</v>
+        <v>2.523574160594885e-09</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.564882453970399e-09</v>
+        <v>2.534659924197687e-09</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.579088809144839e-09</v>
+        <v>2.548802884934736e-09</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.596056678205658e-09</v>
+        <v>2.565725432381298e-09</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.615498233998922e-09</v>
+        <v>2.585149956112687e-09</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.637125649370652e-09</v>
+        <v>2.606798845704167e-09</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.660651097166865e-09</v>
+        <v>2.630394490730996e-09</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.685786750233641e-09</v>
+        <v>2.655659280768504e-09</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.71224478141697e-09</v>
+        <v>2.682315605391922e-09</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.739737363562936e-09</v>
+        <v>2.710085854176581e-09</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.768007845108556e-09</v>
+        <v>2.738723247733745e-09</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.797275870474592e-09</v>
+        <v>2.768452038599104e-09</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.828132824207871e-09</v>
+        <v>2.799864110934364e-09</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.861179951784608e-09</v>
+        <v>2.833561100846874e-09</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.897018498681011e-09</v>
+        <v>2.870144644443977e-09</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.936249710373383e-09</v>
+        <v>2.910216377833113e-09</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.979474832337936e-09</v>
+        <v>2.954377937121628e-09</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.027295110050864e-09</v>
+        <v>3.00323095841685e-09</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>3.080311788988494e-09</v>
+        <v>3.057377077826245e-09</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>3.13912611462697e-09</v>
+        <v>3.11741793145709e-09</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>3.204339332442637e-09</v>
+        <v>3.183955155416866e-09</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>3.276552687911686e-09</v>
+        <v>3.2575903858129e-09</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>3.356367426510283e-09</v>
+        <v>3.338925258752492e-09</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.444384793714811e-09</v>
+        <v>3.428561410343163e-09</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.541206035001442e-09</v>
+        <v>3.527100476692219e-09</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>3.647432395846317e-09</v>
+        <v>3.635144093906935e-09</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.763665121725866e-09</v>
+        <v>3.753293898094881e-09</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>3.890505458116243e-09</v>
+        <v>3.882151525363341e-09</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>4.028554650493553e-09</v>
+        <v>4.022318611819558e-09</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>4.178413944334289e-09</v>
+        <v>4.174396793571161e-09</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.340684585114572e-09</v>
+        <v>4.338987706725406e-09</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.515967818310479e-09</v>
+        <v>4.516692987389502e-09</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.705023463259923e-09</v>
+        <v>4.70827121593388e-09</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.910316657249714e-09</v>
+        <v>4.916168765823748e-09</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>5.135350528993007e-09</v>
+        <v>5.143859334937912e-09</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>5.383642915094855e-09</v>
+        <v>5.394831177900107e-09</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>5.658711652159461e-09</v>
+        <v>5.672572549333206e-09</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>5.964074576791969e-09</v>
+        <v>5.980571703861036e-09</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>6.303249525596802e-09</v>
+        <v>6.322316896106696e-09</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>6.679754335178251e-09</v>
+        <v>6.70129638069315e-09</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>7.097106842141653e-09</v>
+        <v>7.120998412244415e-09</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>7.558824883091337e-09</v>
+        <v>7.584911245383495e-09</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>8.068426294631471e-09</v>
+        <v>8.096523134733236e-09</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>8.629428913367633e-09</v>
+        <v>8.659322334917894e-09</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>9.245350575904032e-09</v>
+        <v>9.276797100560356e-09</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>9.919567775170003e-09</v>
+        <v>9.95229017802088e-09</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.065448543751073e-08</v>
+        <v>1.068814412057845e-08</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.145210005846653e-08</v>
+        <v>1.148628101659303e-08</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.231440672018123e-08</v>
+        <v>1.234862149938333e-08</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.324340050479651e-08</v>
+        <v>1.327708620226591e-08</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.424107649445382e-08</v>
+        <v>1.427359575855708e-08</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.530942977129734e-08</v>
+        <v>1.534007080157591e-08</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.645045541746857e-08</v>
+        <v>1.647843196463877e-08</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.766614851510876e-08</v>
+        <v>1.76905998810618e-08</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.895428167225848e-08</v>
+        <v>1.897430669987555e-08</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.029334461664427e-08</v>
+        <v>2.030815691195309e-08</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.165632570538953e-08</v>
+        <v>2.166529792216268e-08</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.30162128804851e-08</v>
+        <v>2.301887672358177e-08</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.434599408391695e-08</v>
+        <v>2.434204030928294e-08</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.561865725767587e-08</v>
+        <v>2.560793567234356e-08</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.680719034374901e-08</v>
+        <v>2.678970980583739e-08</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.788458128412382e-08</v>
+        <v>2.78605097028385e-08</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.882381802079063e-08</v>
+        <v>2.87934823564238e-08</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.959788849573679e-08</v>
+        <v>2.956177475966723e-08</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.017978065095023e-08</v>
+        <v>3.013853390564336e-08</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>3.054248242842039e-08</v>
+        <v>3.049690678742819e-08</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>3.065898177013501e-08</v>
+        <v>3.061004039809608e-08</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.050226661808274e-08</v>
+        <v>3.04510817307223e-08</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.004532491425169e-08</v>
+        <v>2.999317777838153e-08</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.926114460063024e-08</v>
+        <v>2.920947553414876e-08</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.812271361920793e-08</v>
+        <v>2.807312199110014e-08</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.661244783016054e-08</v>
+        <v>2.656664280283724e-08</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.477596854544239e-08</v>
+        <v>2.473543884778643e-08</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.268487758014024e-08</v>
+        <v>2.265075576822821e-08</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.041085661866165e-08</v>
+        <v>2.038391865847392e-08</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.8025587345422e-08</v>
+        <v>1.800625261284264e-08</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.560075144482833e-08</v>
+        <v>1.558908272564519e-08</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.320803060129417e-08</v>
+        <v>1.320373409119883e-08</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.09191064992329e-08</v>
+        <v>1.092153180382067e-08</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>8.805660823051776e-09</v>
+        <v>8.813800957821725e-09</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>6.939375257164302e-09</v>
+        <v>6.951866647519235e-09</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>5.391875785877701e-09</v>
+        <v>5.406998578918465e-09</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>4.203936478323639e-09</v>
+        <v>4.219787243621811e-09</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.334300027383412e-09</v>
+        <v>3.349250946694e-09</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.728226184049722e-09</v>
+        <v>2.741000525215112e-09</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.330974699313781e-09</v>
+        <v>2.340646816263729e-09</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.087805324168674e-09</v>
+        <v>2.093800656920316e-09</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.943977809606263e-09</v>
+        <v>1.946072884264102e-09</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.844932710170149e-09</v>
+        <v>1.843253930599199e-09</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.754072820607134e-09</v>
+        <v>1.748976425118968e-09</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.667756904451864e-09</v>
+        <v>1.659608718014633e-09</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.585874095425665e-09</v>
+        <v>1.575025935873365e-09</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.508313527249849e-09</v>
+        <v>1.495103205282317e-09</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.43496433364552e-09</v>
+        <v>1.419715652828428e-09</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.365715648333993e-09</v>
+        <v>1.348738405098858e-09</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.300456605036568e-09</v>
+        <v>1.282046588680749e-09</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.239076337474372e-09</v>
+        <v>1.219515330161063e-09</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.181463979368707e-09</v>
+        <v>1.161019756126946e-09</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.127508664440866e-09</v>
+        <v>1.10643499316553e-09</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.077099526411994e-09</v>
+        <v>1.055636167863801e-09</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.030125699003385e-09</v>
+        <v>1.008498406808893e-09</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>9.864763159363196e-10</v>
+        <v>9.64896836587928e-10</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>9.460405109319633e-10</v>
+        <v>9.247065837879106e-10</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>9.087074177116325e-10</v>
+        <v>8.878027749959983e-10</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>8.743661699965034e-10</v>
+        <v>8.540605367992073e-10</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>8.429059015078546e-10</v>
+        <v>8.233549957846573e-10</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>8.142157459669542e-10</v>
+        <v>7.955612785394551e-10</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>7.881848370949937e-10</v>
+        <v>7.70554511650635e-10</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>7.647023086132439e-10</v>
+        <v>7.482098217053066e-10</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>7.436572942429659e-10</v>
+        <v>7.284023352905709e-10</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.249389277053657e-10</v>
+        <v>7.110071789934761e-10</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.084363427217065e-10</v>
+        <v>6.958994794011251e-10</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>6.940386730132438e-10</v>
+        <v>6.82954363100612e-10</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>6.816350523011954e-10</v>
+        <v>6.720469566789975e-10</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>6.711146143068266e-10</v>
+        <v>6.630523867233853e-10</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.623664927513633e-10</v>
+        <v>6.558457798208438e-10</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.552798213560578e-10</v>
+        <v>6.503022625584647e-10</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.49743733842159e-10</v>
+        <v>6.462969615233355e-10</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.456473639308999e-10</v>
+        <v>6.437050033025327e-10</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.428798453435294e-10</v>
+        <v>6.424015144831443e-10</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>6.413303118012924e-10</v>
+        <v>6.422616216522538e-10</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>6.408878970254292e-10</v>
+        <v>6.431604513969447e-10</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>6.414417347371854e-10</v>
+        <v>6.449731303043018e-10</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>6.428809586578026e-10</v>
+        <v>6.47574784961406e-10</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>6.45094702508527e-10</v>
+        <v>6.508405419553459e-10</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>6.479721000105984e-10</v>
+        <v>6.546455278731999e-10</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>6.514022848852653e-10</v>
+        <v>6.588648693020584e-10</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>6.55274390853769e-10</v>
+        <v>6.633736928290024e-10</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>6.594775924448216e-10</v>
+        <v>6.680471714323795e-10</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>6.639437527339588e-10</v>
+        <v>6.728090078252812e-10</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>6.687282435599877e-10</v>
+        <v>6.777233135181504e-10</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>6.739086438933226e-10</v>
+        <v>6.828794458141907e-10</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>6.795625327043918e-10</v>
+        <v>6.883667620166199e-10</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>6.857674889636108e-10</v>
+        <v>6.94274619428642e-10</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>6.926010916413918e-10</v>
+        <v>7.006923753534595e-10</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>7.001409197081667e-10</v>
+        <v>7.077093870942924e-10</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>7.084645521343493e-10</v>
+        <v>7.15415011954344e-10</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>7.176495678903495e-10</v>
+        <v>7.238986072368145e-10</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>7.277735459466038e-10</v>
+        <v>7.332495302449278e-10</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>7.389140652735232e-10</v>
+        <v>7.435571382818851e-10</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>7.511487048415158e-10</v>
+        <v>7.549107886508842e-10</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>7.645550436210226e-10</v>
+        <v>7.673998386551541e-10</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>7.792106605824389e-10</v>
+        <v>7.81113645597881e-10</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>7.951931346962105e-10</v>
+        <v>7.961415667822977e-10</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>8.125800449327436e-10</v>
+        <v>8.125729595116009e-10</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>8.314489702624403e-10</v>
+        <v>8.304971810889826e-10</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>8.518774896557534e-10</v>
+        <v>8.500035888176831e-10</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>8.739431820830867e-10</v>
+        <v>8.711815400008962e-10</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>8.977236265148363e-10</v>
+        <v>8.94120391941808e-10</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>9.232964019214652e-10</v>
+        <v>9.189095019436693e-10</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>9.507390872733714e-10</v>
+        <v>9.456382273096681e-10</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>9.801292615409473e-10</v>
+        <v>9.743959253429865e-10</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.011544503694665e-09</v>
+        <v>1.005271953346885e-09</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.045062392704887e-09</v>
+        <v>1.038355668624515e-09</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.080760507542093e-09</v>
+        <v>1.073736428479147e-09</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.118716427176674e-09</v>
+        <v>1.111503590213958e-09</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.15900773057901e-09</v>
+        <v>1.151746511132121e-09</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.201711996719594e-09</v>
+        <v>1.194554548536916e-09</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.246906804568811e-09</v>
+        <v>1.240017059731518e-09</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.294669733097034e-09</v>
+        <v>1.288223402019089e-09</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.34507836127477e-09</v>
+        <v>1.339262932702925e-09</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.398210268072396e-09</v>
+        <v>1.393225009086193e-09</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.454143032460279e-09</v>
+        <v>1.450198988472048e-09</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.51295423340894e-09</v>
+        <v>1.510274228163801e-09</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.574721449888692e-09</v>
+        <v>1.573540085464553e-09</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.639522260870066e-09</v>
+        <v>1.640085917677626e-09</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.707434239212859e-09</v>
+        <v>1.710001075522316e-09</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.778359579761011e-09</v>
+        <v>1.783185947927771e-09</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.851566457981997e-09</v>
+        <v>1.858857796945591e-09</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.926179822403679e-09</v>
+        <v>1.936079564151254e-09</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.001324621553648e-09</v>
+        <v>2.013914191119962e-09</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.076125803959769e-09</v>
+        <v>2.091424619427197e-09</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.149708318149698e-09</v>
+        <v>2.167673790648229e-09</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.2211971126511e-09</v>
+        <v>2.241724646358333e-09</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.289717135991829e-09</v>
+        <v>2.312640128132983e-09</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.354393336699548e-09</v>
+        <v>2.379483177547452e-09</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.414350663301931e-09</v>
+        <v>2.441316736177027e-09</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.468714064326813e-09</v>
+        <v>2.49720374559716e-09</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.516608488301862e-09</v>
+        <v>2.546207147383131e-09</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.557158883754776e-09</v>
+        <v>2.587389883110252e-09</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.589490199213351e-09</v>
+        <v>2.619814894353935e-09</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.612727383205259e-09</v>
+        <v>2.642545122689464e-09</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.625995384258267e-09</v>
+        <v>2.65464350969222e-09</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.628419150900078e-09</v>
+        <v>2.655172996937519e-09</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.61920566523681e-09</v>
+        <v>2.643285454697552e-09</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.599002141710115e-09</v>
+        <v>2.619694040552343e-09</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.569684500364337e-09</v>
+        <v>2.58644389332912e-09</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.533168054583944e-09</v>
+        <v>2.545622856299685e-09</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.491368117753301e-09</v>
+        <v>2.499318772735731e-09</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.446200003256866e-09</v>
+        <v>2.449619485909052e-09</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.399579024479116e-09</v>
+        <v>2.39861283909146e-09</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.353420494804396e-09</v>
+        <v>2.348386675554626e-09</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.309639727617216e-09</v>
+        <v>2.3010288385704e-09</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.270152036301927e-09</v>
+        <v>2.258627171410458e-09</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.236872734243004e-09</v>
+        <v>2.223269517346612e-09</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.211717134824895e-09</v>
+        <v>2.197043719650641e-09</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.196600551431984e-09</v>
+        <v>2.182037621594263e-09</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.19343829744873e-09</v>
+        <v>2.180339066449269e-09</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.204136566352265e-09</v>
+        <v>2.194026192777163e-09</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.229036017405988e-09</v>
+        <v>2.223511216949056e-09</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.265149792142633e-09</v>
+        <v>2.265665464579519e-09</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.309065363342355e-09</v>
+        <v>2.316907297039691e-09</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.357370203785428e-09</v>
+        <v>2.373655075700853e-09</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.406651786251966e-09</v>
+        <v>2.432327161934096e-09</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.453497583522255e-09</v>
+        <v>2.489341917110716e-09</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.494495068376444e-09</v>
+        <v>2.541117702601847e-09</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.526231713594728e-09</v>
+        <v>2.584072879778676e-09</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.545410530604098e-09</v>
+        <v>2.614729212020653e-09</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.552372074381855e-09</v>
+        <v>2.632863904230272e-09</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.551740127224728e-09</v>
+        <v>2.642087461413542e-09</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.548384228605935e-09</v>
+        <v>2.646230330442731e-09</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.547173917998695e-09</v>
+        <v>2.649122958190085e-09</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.552978734876218e-09</v>
+        <v>2.654595791527851e-09</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.570668218711738e-09</v>
+        <v>2.666479277328296e-09</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.604611559322843e-09</v>
+        <v>2.688267964626761e-09</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.650722426228274e-09</v>
+        <v>2.717779990081035e-09</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>2.697871357696108e-09</v>
+        <v>2.748105251755057e-09</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>2.734713981348874e-09</v>
+        <v>2.772189372564072e-09</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>2.749905924809141e-09</v>
+        <v>2.782977975423348e-09</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.735210231575253e-09</v>
+        <v>2.775201579537078e-09</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.696293815117841e-09</v>
+        <v>2.751577071852715e-09</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>2.642710796532875e-09</v>
+        <v>2.717054147136841e-09</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>2.584015478114063e-09</v>
+        <v>2.676582604235827e-09</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>2.52822701653505e-09</v>
+        <v>2.634351827866965e-09</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.476520805532174e-09</v>
+        <v>2.591161235069106e-09</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.428165827489247e-09</v>
+        <v>2.546865927169736e-09</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.382430984061474e-09</v>
+        <v>2.501320965508503e-09</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.338585176903939e-09</v>
+        <v>2.454381411424929e-09</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.295897307671848e-09</v>
+        <v>2.405902326258661e-09</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.253636278020403e-09</v>
+        <v>2.355738771349348e-09</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.211070989604695e-09</v>
+        <v>2.303745808036508e-09</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.167470344079966e-09</v>
+        <v>2.249778497659837e-09</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>2.122103243101304e-09</v>
+        <v>2.193691901558844e-09</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>2.074238588323911e-09</v>
+        <v>2.135341081073184e-09</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>2.023145281402954e-09</v>
+        <v>2.074581097542459e-09</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.968092223993647e-09</v>
+        <v>2.011267012306335e-09</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.908390031272067e-09</v>
+        <v>1.945277732547992e-09</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.844356620500548e-09</v>
+        <v>1.877067997159924e-09</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.77734455820142e-09</v>
+        <v>1.807684009958415e-09</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.708753595083329e-09</v>
+        <v>1.738198947949927e-09</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.639983481854924e-09</v>
+        <v>1.669685988140921e-09</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.572433969224669e-09</v>
+        <v>1.603218307537674e-09</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.507504807901214e-09</v>
+        <v>1.539869083146649e-09</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.446595748593202e-09</v>
+        <v>1.4807114919743e-09</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.391106542009109e-09</v>
+        <v>1.426818711026918e-09</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.342436938857582e-09</v>
+        <v>1.379263917310961e-09</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.301986689847241e-09</v>
+        <v>1.339120287832862e-09</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.2711555456866e-09</v>
+        <v>1.307460999598949e-09</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.251343257084302e-09</v>
+        <v>1.285359229615677e-09</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.243801868523015e-09</v>
+        <v>1.273871634814697e-09</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.248946672309633e-09</v>
+        <v>1.273961286306426e-09</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.266898651305967e-09</v>
+        <v>1.286558338416649e-09</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.297778463104191e-09</v>
+        <v>1.312592909091684e-09</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.341706765296439e-09</v>
+        <v>1.35299511627782e-09</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.398804215474796e-09</v>
+        <v>1.408695077921296e-09</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.469191471231509e-09</v>
+        <v>1.480622911968508e-09</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.552989190158676e-09</v>
+        <v>1.569708736365708e-09</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.650318116300339e-09</v>
+        <v>1.676882753344134e-09</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.776905316191068e-09</v>
+        <v>1.81829031012e-09</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.007620578861158e-09</v>
+        <v>2.067737044994883e-09</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.430350496512519e-09</v>
+        <v>2.511689153248251e-09</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.068935349363419e-09</v>
+        <v>3.172234497147726e-09</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.845211027500363e-09</v>
+        <v>3.96892775019208e-09</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>4.671911511745272e-09</v>
+        <v>4.812174491614901e-09</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>5.461770782917945e-09</v>
+        <v>5.612380300647601e-09</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>6.127522821838329e-09</v>
+        <v>6.279950756521754e-09</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>6.582973175051277e-09</v>
+        <v>6.726417378660835e-09</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>6.810250056378681e-09</v>
+        <v>6.935101251348882e-09</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>6.899765675785209e-09</v>
+        <v>7.00310211058624e-09</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>6.951531295780295e-09</v>
+        <v>7.037605829708361e-09</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>7.065558178872991e-09</v>
+        <v>7.145798282050375e-09</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>7.331509306249194e-09</v>
+        <v>7.423582800557676e-09</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>7.738579556396597e-09</v>
+        <v>7.857324197607179e-09</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>8.219467385368018e-09</v>
+        <v>8.371790277523172e-09</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>8.706241649089466e-09</v>
+        <v>8.89106240321633e-09</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>9.130971203488298e-09</v>
+        <v>9.339221937598775e-09</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>9.429990010635522e-09</v>
+        <v>9.645296480283809e-09</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>9.587610215233515e-09</v>
+        <v>9.793953851734354e-09</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>9.618352773341792e-09</v>
+        <v>9.804894982117366e-09</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>9.537209690183851e-09</v>
+        <v>9.698367076553863e-09</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>9.359172970982918e-09</v>
+        <v>9.494617340164531e-09</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>9.099227274281981e-09</v>
+        <v>9.213827622759172e-09</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>8.772020318179978e-09</v>
+        <v>8.873182386712091e-09</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>8.391729864908719e-09</v>
+        <v>8.485685415489019e-09</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>7.97249880022032e-09</v>
+        <v>8.06403023498325e-09</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>7.528470009867029e-09</v>
+        <v>7.620910371088187e-09</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>7.073786379599888e-09</v>
+        <v>7.169019349696023e-09</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>6.622590795171535e-09</v>
+        <v>6.721050696700558e-09</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>6.188850043546159e-09</v>
+        <v>6.289542081193208e-09</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>5.780382746329056e-09</v>
+        <v>5.881589718632238e-09</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>5.397402531345525e-09</v>
+        <v>5.497559000137334e-09</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>5.039651425429294e-09</v>
+        <v>5.137397924845372e-09</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.70687145541513e-09</v>
+        <v>4.801054491894267e-09</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>4.398804648137718e-09</v>
+        <v>4.488476700421857e-09</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>4.115193030430914e-09</v>
+        <v>4.199612549565141e-09</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.85577862912942e-09</v>
+        <v>3.934410038461973e-09</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.620303471067852e-09</v>
+        <v>3.692817166250124e-09</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.4085095830802e-09</v>
+        <v>3.474781932066721e-09</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>3.22013899200126e-09</v>
+        <v>3.280252335049721e-09</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>3.054933724665107e-09</v>
+        <v>3.109176374336336e-09</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.912635807906334e-09</v>
+        <v>2.961502049064314e-09</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.792903185748317e-09</v>
+        <v>2.83708832824876e-09</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.693112971620819e-09</v>
+        <v>2.733379149526162e-09</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.60815024428246e-09</v>
+        <v>2.645179788133331e-09</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.532773654986342e-09</v>
+        <v>2.567161652989342e-09</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.461741854985278e-09</v>
+        <v>2.493996153012963e-09</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>2.389813495532279e-09</v>
+        <v>2.420354697123172e-09</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.311747227880361e-09</v>
+        <v>2.340908694238952e-09</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.222301703282332e-09</v>
+        <v>2.250329553279069e-09</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.116239683497485e-09</v>
+        <v>2.143292816356049e-09</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.991592027898986e-09</v>
+        <v>2.017760160926351e-09</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.855529707988355e-09</v>
+        <v>1.880883823928214e-09</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.716809343803872e-09</v>
+        <v>1.741410442564288e-09</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.584187555383825e-09</v>
+        <v>1.60808665403724e-09</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.466420962766142e-09</v>
+        <v>1.489659095549367e-09</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.372266185989192e-09</v>
+        <v>1.394874404303415e-09</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.310479845090972e-09</v>
+        <v>1.332479217501754e-09</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.289818560109753e-09</v>
+        <v>1.31122017234703e-09</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.319038951083658e-09</v>
+        <v>1.339843906041739e-09</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.406897638050905e-09</v>
+        <v>1.427097055788475e-09</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.562151241049667e-09</v>
+        <v>1.581726258789782e-09</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.793556380117871e-09</v>
+        <v>1.812478152247965e-09</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.109869675294102e-09</v>
+        <v>2.12809937336598e-09</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>2.524430225631787e-09</v>
+        <v>2.542002821440017e-09</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>3.107918074000781e-09</v>
+        <v>3.125990724261489e-09</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.970036261065333e-09</v>
+        <v>3.991601778633856e-09</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>5.221235751831349e-09</v>
+        <v>5.251136280266534e-09</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>6.971967511308675e-09</v>
+        <v>7.016894524872904e-09</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>9.332682504504051e-09</v>
+        <v>9.401176808163218e-09</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.229737756451896e-08</v>
+        <v>1.239785485566191e-08</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.479547624326463e-08</v>
+        <v>1.491817765133211e-08</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.51858678940766e-08</v>
+        <v>1.529318677666882e-08</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.364452782936901e-08</v>
+        <v>1.369951715313898e-08</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.423918698703504e-08</v>
+        <v>1.427053429502488e-08</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.620778445187357e-08</v>
+        <v>1.62403170654821e-08</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.818253949366538e-08</v>
+        <v>1.822824652104099e-08</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.891854968155172e-08</v>
+        <v>1.897719341134548e-08</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.846623158187398e-08</v>
+        <v>1.853179247757376e-08</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.765252853281632e-08</v>
+        <v>1.771706892242913e-08</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.730701669696735e-08</v>
+        <v>1.736079359840945e-08</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.766681943228579e-08</v>
+        <v>1.770282195691675e-08</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.800264060149233e-08</v>
+        <v>1.802382304609709e-08</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.796691267495876e-08</v>
+        <v>1.798036788428563e-08</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.76141951728894e-08</v>
+        <v>1.762562610291723e-08</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.701164171064203e-08</v>
+        <v>1.702518828514631e-08</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.622640590357525e-08</v>
+        <v>1.624464501412815e-08</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.532564136704836e-08</v>
+        <v>1.534958687301866e-08</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.437650171641812e-08</v>
+        <v>1.440560444497129e-08</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.34436205813124e-08</v>
+        <v>1.347585460874055e-08</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.255548812260557e-08</v>
+        <v>1.258858828393572e-08</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.171354951466996e-08</v>
+        <v>1.174593739200448e-08</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.09185977495188e-08</v>
+        <v>1.094940400198785e-08</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.017142581916516e-08</v>
+        <v>1.020049018292667e-08</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>9.472826715620092e-09</v>
+        <v>9.5006980038598e-09</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>8.823593430897257e-09</v>
+        <v>8.851529533828679e-09</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>8.224518957007885e-09</v>
+        <v>8.254486841872331e-09</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>7.676404008847779e-09</v>
+        <v>7.711077483880063e-09</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>7.182239101174141e-09</v>
+        <v>7.224364794898069e-09</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>6.750204590726242e-09</v>
+        <v>6.801099318162306e-09</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>6.389232739909664e-09</v>
+        <v>6.448565800597885e-09</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>6.108255811129736e-09</v>
+        <v>6.174048989129667e-09</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>5.915208330797853e-09</v>
+        <v>5.983910680122725e-09</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>5.801254770540409e-09</v>
+        <v>5.868999616845203e-09</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>5.743638463135097e-09</v>
+        <v>5.807286864531437e-09</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>5.719180987432368e-09</v>
+        <v>5.776353347110233e-09</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>5.704703922282856e-09</v>
+        <v>5.753779988510603e-09</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>5.677028846537093e-09</v>
+        <v>5.71714771266143e-09</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>5.612977339045631e-09</v>
+        <v>5.644037443491642e-09</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>5.492007513534301e-09</v>
+        <v>5.514651310654482e-09</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>5.320437937286564e-09</v>
+        <v>5.335895727248546e-09</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>5.120271933757381e-09</v>
+        <v>5.130270669365603e-09</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>4.913709378980926e-09</v>
+        <v>4.92047152289479e-09</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>4.722950148990799e-09</v>
+        <v>4.729193673724672e-09</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>4.570086793606527e-09</v>
+        <v>4.579019548097186e-09</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>4.460728203892737e-09</v>
+        <v>4.475182704751487e-09</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>4.366391297774138e-09</v>
+        <v>4.387035279879266e-09</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>4.255891081825928e-09</v>
+        <v>4.281116546261108e-09</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>4.119156391004699e-09</v>
+        <v>4.146616183803443e-09</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.96156334357171e-09</v>
+        <v>3.989295346307329e-09</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.788841514179729e-09</v>
+        <v>3.815294367087096e-09</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>3.606720477481684e-09</v>
+        <v>3.630753579457246e-09</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.42092980813001e-09</v>
+        <v>3.441813316731771e-09</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>3.237199080777794e-09</v>
+        <v>3.254613912225329e-09</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.061225250332545e-09</v>
+        <v>3.075260802899536e-09</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.896499564797905e-09</v>
+        <v>2.907499777425163e-09</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.74294330988551e-09</v>
+        <v>2.751257506254767e-09</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.600152310332066e-09</v>
+        <v>2.60611248419171e-09</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.467722390874697e-09</v>
+        <v>2.471643206039784e-09</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.345249376250488e-09</v>
+        <v>2.347428166602737e-09</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.232329091196198e-09</v>
+        <v>2.233045860683991e-09</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.128557360448924e-09</v>
+        <v>2.128074783087305e-09</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.033530008745727e-09</v>
+        <v>2.032093428616407e-09</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.946842860823417e-09</v>
+        <v>1.944680292074766e-09</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.86809174141913e-09</v>
+        <v>1.865413868266187e-09</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.796872475269705e-09</v>
+        <v>1.793872651994168e-09</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.732780887112197e-09</v>
+        <v>1.72963513806243e-09</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.675412801683635e-09</v>
+        <v>1.672279821274664e-09</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.624364043720896e-09</v>
+        <v>1.621385196434411e-09</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.579230437961015e-09</v>
+        <v>1.57652975834537e-09</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.539607809141004e-09</v>
+        <v>1.537292001811217e-09</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.505091981997774e-09</v>
+        <v>1.503250421635526e-09</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.475278781268344e-09</v>
+        <v>1.473983512621977e-09</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.449764031689713e-09</v>
+        <v>1.449069769574237e-09</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.428143557998816e-09</v>
+        <v>1.428087687295903e-09</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.410013184932675e-09</v>
+        <v>1.410615760590658e-09</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.394968737228235e-09</v>
+        <v>1.396232484262115e-09</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.382606039622496e-09</v>
+        <v>1.384516353113934e-09</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.372520916852438e-09</v>
+        <v>1.375045861949759e-09</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.364309193655047e-09</v>
+        <v>1.367399505573241e-09</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.35756669476729e-09</v>
+        <v>1.361155778788008e-09</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.351937641634387e-09</v>
+        <v>1.355944184820439e-09</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.347335781105398e-09</v>
+        <v>1.351678297161934e-09</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.343768134804092e-09</v>
+        <v>1.348369997625099e-09</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.34124181448729e-09</v>
+        <v>1.34603126301959e-09</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.339763931911808e-09</v>
+        <v>1.344674070155061e-09</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.339341598834467e-09</v>
+        <v>1.344310395841171e-09</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.339981927012087e-09</v>
+        <v>1.344952216887577e-09</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.341692028201487e-09</v>
+        <v>1.346611510103936e-09</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.344479014159487e-09</v>
+        <v>1.349300252299906e-09</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.348349996642903e-09</v>
+        <v>1.353030420285139e-09</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.35331208740856e-09</v>
+        <v>1.3578139908693e-09</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.359372398213269e-09</v>
+        <v>1.363662940862037e-09</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.366538040813862e-09</v>
+        <v>1.370589247073018e-09</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.374816126967152e-09</v>
+        <v>1.378604886311895e-09</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.38421376842995e-09</v>
+        <v>1.387721835388315e-09</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.394738076959091e-09</v>
+        <v>1.397952071111954e-09</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.406396164311388e-09</v>
+        <v>1.409307570292459e-09</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.419195142243649e-09</v>
+        <v>1.421800309739477e-09</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.433142122512715e-09</v>
+        <v>1.435442266262686e-09</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.448244216875395e-09</v>
+        <v>1.450245416671734e-09</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.464508537088493e-09</v>
+        <v>1.466221737776262e-09</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.481942194908858e-09</v>
+        <v>1.483383206385956e-09</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.500552302093279e-09</v>
+        <v>1.501741799310443e-09</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.520345970398607e-09</v>
+        <v>1.521309493359412e-09</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.541330311581647e-09</v>
+        <v>1.542098265342504e-09</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.563512437399197e-09</v>
+        <v>1.564120092069357e-09</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.586899459608116e-09</v>
+        <v>1.587386950349666e-09</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.611498489965206e-09</v>
+        <v>1.61191081699307e-09</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.63731664022726e-09</v>
+        <v>1.637703668809202e-09</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.664361022151145e-09</v>
+        <v>1.664777482607766e-09</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.692638747493659e-09</v>
+        <v>1.693144235198394e-09</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.722156928011593e-09</v>
+        <v>1.722815903390719e-09</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.752922675461821e-09</v>
+        <v>1.75380446399445e-09</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.784943101601105e-09</v>
+        <v>1.786121893819188e-09</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.818225318186323e-09</v>
+        <v>1.819780169674649e-09</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.852912354797302e-09</v>
+        <v>1.854923562957027e-09</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.889789460285994e-09</v>
+        <v>1.892321444340842e-09</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.929831383933185e-09</v>
+        <v>1.932927633311863e-09</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.974012902486388e-09</v>
+        <v>1.977695976090396e-09</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.023308792692963e-09</v>
+        <v>2.02758031889659e-09</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.078693831300441e-09</v>
+        <v>2.083534507950768e-09</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.141142795056222e-09</v>
+        <v>2.14651238947312e-09</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.211630460707681e-09</v>
+        <v>2.217467809683812e-09</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.291131605002385e-09</v>
+        <v>2.297354614803203e-09</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.380621004687719e-09</v>
+        <v>2.387126651051468e-09</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.481073436511028e-09</v>
+        <v>2.487737764648742e-09</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.593401452271028e-09</v>
+        <v>2.600080379028778e-09</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.717406115340106e-09</v>
+        <v>2.723949757761211e-09</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.851930043196279e-09</v>
+        <v>2.858195074161993e-09</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.995784447604514e-09</v>
+        <v>3.001634500695389e-09</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.147780540329282e-09</v>
+        <v>3.153086209825171e-09</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.306729533135582e-09</v>
+        <v>3.311368374015633e-09</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.471442637788008e-09</v>
+        <v>3.475299165730671e-09</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.640731066051133e-09</v>
+        <v>3.643696757434154e-09</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.813406029689987e-09</v>
+        <v>3.815379321590411e-09</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.988278740469145e-09</v>
+        <v>3.989165030663317e-09</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>4.164160410153177e-09</v>
+        <v>4.163872057116741e-09</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.339862250507126e-09</v>
+        <v>4.338318573415021e-09</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.51419547329556e-09</v>
+        <v>4.511322752022024e-09</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.685971290283052e-09</v>
+        <v>4.681702765401627e-09</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.854000913234637e-09</v>
+        <v>4.848276786018157e-09</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>5.018328378757776e-09</v>
+        <v>5.011101910809443e-09</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>5.184685518378277e-09</v>
+        <v>5.17595117305884e-09</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>5.360443378704756e-09</v>
+        <v>5.350244931455173e-09</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>5.552973159353387e-09</v>
+        <v>5.541403698451846e-09</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>5.769646059940864e-09</v>
+        <v>5.756847986502785e-09</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>6.01783328008338e-09</v>
+        <v>6.003998308061419e-09</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>6.304906019397011e-09</v>
+        <v>6.29027517558106e-09</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>6.638235477498625e-09</v>
+        <v>6.623099101515805e-09</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>7.025187957286533e-09</v>
+        <v>7.009885519302735e-09</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>7.471612881464628e-09</v>
+        <v>7.456476510698033e-09</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>7.979702977989658e-09</v>
+        <v>7.964921328697776e-09</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>8.551111039822646e-09</v>
+        <v>8.536709190221245e-09</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>9.187489859924377e-09</v>
+        <v>9.1733293121875e-09</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>9.890492231257401e-09</v>
+        <v>9.876270911517347e-09</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.066177094678257e-08</v>
+        <v>1.06470232051299e-08</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.150297879946048e-08</v>
+        <v>1.148707540994404e-08</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.241576858225405e-08</v>
+        <v>1.239791674288094e-08</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.340094367310666e-08</v>
+        <v>1.33802170790926e-08</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.444894243056325e-08</v>
+        <v>1.442464824432672e-08</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.554327554248263e-08</v>
+        <v>1.55151996654742e-08</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.66673269302115e-08</v>
+        <v>1.663573849103917e-08</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.780448051509959e-08</v>
+        <v>1.777013186952877e-08</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.893812021849362e-08</v>
+        <v>1.890224694944717e-08</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.005162996174031e-08</v>
+        <v>2.001595087929849e-08</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.112839366618938e-08</v>
+        <v>2.109511080758989e-08</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.215179525318753e-08</v>
+        <v>2.21235938828255e-08</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.310433900653276e-08</v>
+        <v>2.308431824863241e-08</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.395600652142366e-08</v>
+        <v>2.394669183346822e-08</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.46674562519529e-08</v>
+        <v>2.46700642111974e-08</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.51991244371452e-08</v>
+        <v>2.521354521696057e-08</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.551144731602332e-08</v>
+        <v>2.553624468589633e-08</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.556486112761076e-08</v>
+        <v>2.559727245314404e-08</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.531982265839829e-08</v>
+        <v>2.535575930825843e-08</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.477012704454893e-08</v>
+        <v>2.480483466535838e-08</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.401070246144338e-08</v>
+        <v>2.404076394454998e-08</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.315558211546295e-08</v>
+        <v>2.317929597716584e-08</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.231879920446526e-08</v>
+        <v>2.233617958589373e-08</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.159126314076143e-08</v>
+        <v>2.160371121142303e-08</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.097337062881353e-08</v>
+        <v>2.098238837181791e-08</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.044337522753134e-08</v>
+        <v>2.045025077834903e-08</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.997953049582257e-08</v>
+        <v>1.998533814228491e-08</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.956008999259636e-08</v>
+        <v>1.956569017489557e-08</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.916330727676136e-08</v>
+        <v>1.916934658745048e-08</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.876743590722655e-08</v>
+        <v>1.877434709121948e-08</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.835072944289989e-08</v>
+        <v>1.835873139747135e-08</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.789144144269079e-08</v>
+        <v>1.790053921747639e-08</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.737160343898334e-08</v>
+        <v>1.738161382085885e-08</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.679500093779462e-08</v>
+        <v>1.680569977133614e-08</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.617318984624501e-08</v>
+        <v>1.618436465579628e-08</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.551773576921412e-08</v>
+        <v>1.552918582456094e-08</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.484020431158325e-08</v>
+        <v>1.485174062795346e-08</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.41521610782338e-08</v>
+        <v>1.416360641629725e-08</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.346517167404525e-08</v>
+        <v>1.347636053991385e-08</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.279080170389899e-08</v>
+        <v>1.280158034912668e-08</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.214055994802244e-08</v>
+        <v>1.215078647237039e-08</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.152044552506379e-08</v>
+        <v>1.152999984051042e-08</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.092642278237622e-08</v>
+        <v>1.093522476061325e-08</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.03533909264647e-08</v>
+        <v>1.036140232516322e-08</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>9.796249163835848e-09</v>
+        <v>9.803473626646299e-09</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>9.2498967009962e-09</v>
+        <v>9.256379757548385e-09</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>8.709232744450837e-09</v>
+        <v>8.715061810353921e-09</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>8.169156500706312e-09</v>
+        <v>8.174460877548813e-09</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>7.624567176269172e-09</v>
+        <v>7.629518051618975e-09</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>7.070636093034143e-09</v>
+        <v>7.075444030703628e-09</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>6.508986608057592e-09</v>
+        <v>6.513842040636697e-09</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>5.947803412068038e-09</v>
+        <v>5.952816125391252e-09</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>5.395565172818199e-09</v>
+        <v>5.400761594598675e-09</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>4.860750558062789e-09</v>
+        <v>4.866073757892329e-09</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.351838235554572e-09</v>
+        <v>4.357147924903637e-09</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>3.877306873047779e-09</v>
+        <v>3.882379405265481e-09</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.445635138296509e-09</v>
+        <v>3.450163508610617e-09</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.065301699053718e-09</v>
+        <v>3.068895544570656e-09</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.744180945102934e-09</v>
+        <v>2.746415726487711e-09</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.487537262647366e-09</v>
+        <v>2.488166690137669e-09</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.299930526987874e-09</v>
+        <v>2.298943899948635e-09</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.185974071689034e-09</v>
+        <v>2.18359661128561e-09</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.153732512972596e-09</v>
+        <v>2.150446777813704e-09</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.213387259049598e-09</v>
+        <v>2.209916617641454e-09</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.353999993673075e-09</v>
+        <v>2.350987783104458e-09</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.556118627019241e-09</v>
+        <v>2.55400055018595e-09</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.800270482916322e-09</v>
+        <v>2.799274299977018e-09</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.066860387953593e-09</v>
+        <v>3.067009251817197e-09</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.333463028396077e-09</v>
+        <v>3.334652546845442e-09</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.574815874461272e-09</v>
+        <v>3.576891364942337e-09</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>3.76553248397914e-09</v>
+        <v>3.768292347621493e-09</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.880226414780388e-09</v>
+        <v>3.883422136397269e-09</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.893530852587458e-09</v>
+        <v>3.896866983460918e-09</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.80047887979555e-09</v>
+        <v>3.803595145741201e-09</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.655080733255413e-09</v>
+        <v>3.657500308113916e-09</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.521942391798331e-09</v>
+        <v>3.523062604332964e-09</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.462232229347281e-09</v>
+        <v>3.461348460282603e-09</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.47262217486369e-09</v>
+        <v>3.469376213831693e-09</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.492472744022917e-09</v>
+        <v>3.487251198657628e-09</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.459150140946422e-09</v>
+        <v>3.453098300647061e-09</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.324182777020715e-09</v>
+        <v>3.318997059712662e-09</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.099050279301079e-09</v>
+        <v>3.096099620583556e-09</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.811093241587382e-09</v>
+        <v>2.811186645443563e-09</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.48765235864268e-09</v>
+        <v>2.491038895960031e-09</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.156068325230155e-09</v>
+        <v>2.162437133800435e-09</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.843679993761294e-09</v>
+        <v>1.852160325046134e-09</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.571220391696312e-09</v>
+        <v>1.580549290714602e-09</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.337974284386549e-09</v>
+        <v>1.347041024694356e-09</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.138880965558203e-09</v>
+        <v>1.146837353139347e-09</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>9.688797289381188e-10</v>
+        <v>9.751401022041702e-10</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>8.229098682530345e-10</v>
+        <v>8.2715109804332e-10</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>6.959106772293065e-10</v>
+        <v>6.980721668109007e-10</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>5.828215636239774e-10</v>
+        <v>5.831052487407811e-10</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>4.838978039868266e-10</v>
+        <v>4.827701722906189e-10</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.113129963084274e-10</v>
+        <v>4.094078339815919e-10</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.625193451526306e-10</v>
+        <v>3.603750637327802e-10</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.320101403085099e-10</v>
+        <v>3.30029035496744e-10</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.142786715650678e-10</v>
+        <v>3.127269232259722e-10</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.038182287114006e-10</v>
+        <v>3.02825900873047e-10</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.958802347355205e-10</v>
+        <v>2.95459417191419e-10</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.893105778607717e-10</v>
+        <v>2.894413992314447e-10</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.840193417656438e-10</v>
+        <v>2.846754349582201e-10</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.799167734929948e-10</v>
+        <v>2.810652796104072e-10</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.769131200856976e-10</v>
+        <v>2.785146884266818e-10</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.749186285866213e-10</v>
+        <v>2.769274166457157e-10</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.738435460386298e-10</v>
+        <v>2.76207219506177e-10</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.735981194845931e-10</v>
+        <v>2.762578522467385e-10</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.74092595967378e-10</v>
+        <v>2.7698307010607e-10</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.752372225298531e-10</v>
+        <v>2.782866283228436e-10</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.769422462148841e-10</v>
+        <v>2.800722821357282e-10</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.791179517568717e-10</v>
+        <v>2.822438504517477e-10</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.816818667518014e-10</v>
+        <v>2.847173867846346e-10</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.845673259463734e-10</v>
+        <v>2.874356460105423e-10</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.877097492931917e-10</v>
+        <v>2.903449053253314e-10</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.91044556744853e-10</v>
+        <v>2.933914419248549e-10</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.945071682539532e-10</v>
+        <v>2.965215330049655e-10</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.980330037730973e-10</v>
+        <v>2.996814557615244e-10</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.015574832548816e-10</v>
+        <v>3.028174873903843e-10</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.050160266519019e-10</v>
+        <v>3.058759050873979e-10</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.083440539167635e-10</v>
+        <v>3.088029860484264e-10</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.114769850020596e-10</v>
+        <v>3.115450074693201e-10</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.143502398603949e-10</v>
+        <v>3.140482465459396e-10</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.168992384443654e-10</v>
+        <v>3.162589804741376e-10</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.190594007065684e-10</v>
+        <v>3.181234864497683e-10</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.207661465996068e-10</v>
+        <v>3.195880416686905e-10</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.219548960760776e-10</v>
+        <v>3.205989233267579e-10</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.225610690885794e-10</v>
+        <v>3.211024086198257e-10</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.225200855897126e-10</v>
+        <v>3.210447747437506e-10</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>3.217673655320752e-10</v>
+        <v>3.203722988943871e-10</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>3.203064675344651e-10</v>
+        <v>3.190943425607032e-10</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.184552342821999e-10</v>
+        <v>3.175112384126252e-10</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.166220612396243e-10</v>
+        <v>3.160071548975164e-10</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.152153522791754e-10</v>
+        <v>3.149662682471391e-10</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.146435112732959e-10</v>
+        <v>3.147727546932605e-10</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.153149420944263e-10</v>
+        <v>3.15810790467646e-10</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.176380486150044e-10</v>
+        <v>3.184645518020579e-10</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.220212347074748e-10</v>
+        <v>3.231182149282663e-10</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.288729042442695e-10</v>
+        <v>3.301559560780274e-10</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.386014610978413e-10</v>
+        <v>3.399619514831192e-10</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.516153091406259e-10</v>
+        <v>3.529203773753021e-10</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.683228522450471e-10</v>
+        <v>3.694154099863249e-10</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.891324942835755e-10</v>
+        <v>3.898312255479826e-10</v>
       </c>
     </row>
   </sheetData>
